--- a/documents/DB.xlsx
+++ b/documents/DB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>dtb_member</t>
     <phoneticPr fontId="2"/>
@@ -221,25 +221,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>管理ユーザのユーザ権限。ユーザ登録時にユーザ自身で定義。</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>トウr</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>その管理ユーザが「稼働」か「非稼働」かの設定。ユーザ登録時にユーザ自身で定義。</t>
     <rPh sb="2" eb="4">
       <t>カンリ</t>
@@ -258,6 +239,96 @@
     </rPh>
     <rPh sb="33" eb="38">
       <t>ジシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この管理ユーザを登録した管理ユーザのID。</t>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本ユーザ情報の登録日。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>トウロクビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本ユーザ情報の最終更新日。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="12">
+      <t>サイシュウコウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本ユーザの最終ログイン日。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理ユーザのユーザ権限のID。ユーザ登録時にユーザ自身で定義。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>トウr</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードの暗号化に使用。暗号化処理の詳細は、data/util/SC_Utils.phpのsfGetHashStringを参照のこと。</t>
+    <rPh sb="6" eb="9">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>アンゴウカショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -707,7 +778,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -820,6 +891,9 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -831,7 +905,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -858,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -882,6 +956,9 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
@@ -894,6 +971,9 @@
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
@@ -906,6 +986,9 @@
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
@@ -919,6 +1002,9 @@
       </c>
       <c r="D16" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/documents/DB.xlsx
+++ b/documents/DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21105"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24720" yWindow="-440" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dtb_" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="115">
   <si>
     <t>dtb_member</t>
     <phoneticPr fontId="2"/>
@@ -330,6 +330,314 @@
     <rPh sb="62" eb="64">
       <t>サンショウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dtb_volunteer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>volunteer_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dtb_memberとの関連付け。</t>
+    <rPh sb="12" eb="15">
+      <t>カンレンヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dtb_customer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>customer_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>name01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>name02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kana01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kana02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>zip01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>zip02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pref</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>addr01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>addr02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>email_mobile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tel01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tel02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tel03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fax01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fax02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fax03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>birth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reminder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reminder_answer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>salt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>secret_key</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>first_buy_date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>last_buy_date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>buy_times</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>buy_total</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>del_flg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mobile_phone_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mailmaga_flg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>smallint(6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>smallint(6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>smallint(6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>decimal(10.0)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>smallint(6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>smallint(6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CURRECT_TIMESTAMP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0000-00-00 00:00:00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボランティア団体名。</t>
+    <rPh sb="0" eb="8">
+      <t>ボランテ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボランティア団体名(読み)。</t>
+    <rPh sb="0" eb="8">
+      <t>ボラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>text</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -337,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -380,6 +688,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -398,7 +714,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -416,8 +732,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,8 +770,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="43">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -438,6 +783,19 @@
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -447,6 +805,19 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -775,21 +1146,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -811,200 +1183,987 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/documents/DB.xlsx
+++ b/documents/DB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="115">
   <si>
     <t>dtb_member</t>
     <phoneticPr fontId="2"/>
@@ -714,8 +714,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -774,7 +776,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -796,6 +798,7 @@
     <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -818,6 +821,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1146,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79:D79"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2042,7 +2046,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>18</v>
@@ -2056,7 +2060,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>18</v>
@@ -2070,7 +2074,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>18</v>
@@ -2084,7 +2088,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>18</v>
@@ -2098,7 +2102,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>18</v>
@@ -2112,7 +2116,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>18</v>
@@ -2126,13 +2130,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>104</v>
@@ -2140,10 +2144,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>110</v>
@@ -2154,15 +2158,29 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>104</v>
       </c>
     </row>
